--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-practitioner.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="147">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>This extension specifies a practitioner role for process authorization. It is used within a Coding to indicate a practitioner role (by a coding). The practitioner role is specified as a Coding. This enables precise authorization for requester or roles in process authorization extensions.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -346,6 +343,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://dsf.dev/fhir/ValueSet/practitioner-role</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -696,57 +699,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -754,18 +755,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -784,163 +785,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.3984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="151.1953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="147.375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="36.28125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -948,28 +949,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1020,19 +1021,19 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -1040,10 +1041,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1051,10 +1052,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1066,13 +1067,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1123,42 +1124,42 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
       </c>
@@ -1169,16 +1170,16 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1216,42 +1217,42 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1259,10 +1260,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1274,16 +1275,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1333,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1348,15 +1349,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1364,10 +1365,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1379,13 +1380,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1412,13 +1413,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1436,30 +1435,30 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1467,10 +1466,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1482,13 +1481,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1539,42 +1538,42 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -1585,16 +1584,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1632,42 +1631,42 @@
         <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC8" t="s" s="2">
+      <c r="AD8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1675,10 +1674,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1687,22 +1686,22 @@
         <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -1751,30 +1750,30 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1782,10 +1781,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1794,19 +1793,19 @@
         <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1856,30 +1855,30 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1887,10 +1886,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1899,20 +1898,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -1961,30 +1960,30 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1992,10 +1991,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2004,20 +2003,20 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2066,30 +2065,30 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2097,10 +2096,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2109,22 +2108,22 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2173,22 +2172,22 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-practitioner.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
